--- a/biology/Botanique/Xeronemataceae/Xeronemataceae.xlsx
+++ b/biology/Botanique/Xeronemataceae/Xeronemataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Xeronemataceae est une petite famille de plantes à fleurs monocotylédones de l'ordre des Asparagales. Elle regroupe des plantes herbacées et ne comporte qu'une ou deux espèces du genre Xeronema.
 La distribution géographique de ces deux espèces se limite à la Nouvelle-Calédonie et à l'extrême nord de la Nouvelle-Zélande (les Îles Poor Knights et les Îles Hen and Chicken dans le Northland).
-Cette famille a été publiée en 2001 et n'existait pas dans la classification classique de Cronquist (1981)[1].
+Cette famille a été publiée en 2001 et n'existait pas dans la classification classique de Cronquist (1981).
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Xeronema dérivé du grec ξηρός / xeros, sec, et νήμα / nema, fil,  en référence aux filaments persistants des fleurs[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Xeronema dérivé du grec ξηρός / xeros, sec, et νήμα / nema, fil,  en référence aux filaments persistants des fleurs.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010)[3], NCBI  (16 avr. 2010)[4], Angiosperm Phylogeny Website                        (16 avr. 2010)[5] et DELTA Angio           (16 avr. 2010)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010), NCBI  (16 avr. 2010), Angiosperm Phylogeny Website                        (16 avr. 2010) et DELTA Angio           (16 avr. 2010) :
 genre Xeronema Brongn. &amp; Gris (1864)</t>
         </is>
       </c>
@@ -575,13 +591,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010) :
 genre Xeronema Brongn. &amp; Gris (1864)
 Xeronema callistemon W.R.B.Oliv. (1926) (endémique à la Nouvelle-Zélande)
 Xeronema moorei Brongn. &amp; Gris (1864) (endémique à la Nouvelle-Calédonie)
-Selon NCBI  (16 avr. 2010)[4] :
+Selon NCBI  (16 avr. 2010) :
 genre Xeronema
 Xeronema callistemon</t>
         </is>
